--- a/docs/StructureDefinition-VAOrderCheck.xlsx
+++ b/docs/StructureDefinition-VAOrderCheck.xlsx
@@ -343,6 +343,33 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
+    <t>detectedissue-orderCheckRecipient</t>
+  </si>
+  <si>
+    <t>USER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/detectedissue-orderCheckRecipient}
+</t>
+  </si>
+  <si>
+    <t>Optional Extensions Element</t>
+  </si>
+  <si>
+    <t>This is the user that saw the order checks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>ORDER CHECK INSTANCES @USER 100.05-3</t>
+  </si>
+  <si>
     <t>detectedissue-orderCheckContext</t>
   </si>
   <si>
@@ -353,37 +380,10 @@
 </t>
   </si>
   <si>
-    <t>Optional Extensions Element</t>
-  </si>
-  <si>
     <t>This is a description field that the application where the order check  occurred can use to describe where/when the order check took place.  For  instance, CPRS will use ACCEPTANCE_CPRS when the order check happened at  order acceptance inside of the CPRS application. CPRS will use  SIGNATURE_CPRS when the order check happened at order signature inside of  the CPRS application.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
     <t>ORDER CHECK INSTANCES @OCCURRENCE 100.05-2</t>
-  </si>
-  <si>
-    <t>detectedissue-orderCheckRecipient</t>
-  </si>
-  <si>
-    <t>USER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/detectedissue-orderCheckRecipient}
-</t>
-  </si>
-  <si>
-    <t>This is the user that saw the order checks.</t>
-  </si>
-  <si>
-    <t>ORDER CHECK INSTANCES @USER 100.05-3</t>
   </si>
   <si>
     <t>DetectedIssue.modifierExtension</t>
